--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value970.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value970.xlsx
@@ -354,10 +354,10 @@
         <v>1.542822184537274</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.106583692027669</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value970.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value970.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15151727108935</v>
+        <v>0.88649582862854</v>
       </c>
       <c r="B1">
-        <v>1.542822184537274</v>
+        <v>1.243007779121399</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.767964959144592</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>5.205566883087158</v>
       </c>
       <c r="E1">
-        <v>1.106583692027669</v>
+        <v>2.073575258255005</v>
       </c>
     </row>
   </sheetData>
